--- a/medicine/Psychotrope/Garçon_à_la_pipe/Garçon_à_la_pipe.xlsx
+++ b/medicine/Psychotrope/Garçon_à_la_pipe/Garçon_à_la_pipe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gar%C3%A7on_%C3%A0_la_pipe</t>
+          <t>Garçon_à_la_pipe</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Garçon à la pipe est un tableau de Pablo Picasso réalisé en 1905, lors de sa « période rose » lorsqu'il avait vingt-quatre ans et venait de s'installer à Montmartre, à Paris.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Gar%C3%A7on_%C3%A0_la_pipe</t>
+          <t>Garçon_à_la_pipe</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'huile sur toile représente un garçon tenant une pipe dans sa main gauche et portant une couronne de fleurs. On peut noter vraisemblablement une source d'inspiration au travers l’œuvre de Édouard Manet, mais également une référence marquée à la toile "Annah la Javanaise" de Paul Gauguin, en ce qui concerne la palette de couleurs notamment.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Gar%C3%A7on_%C3%A0_la_pipe</t>
+          <t>Garçon_à_la_pipe</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Cote</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Garçon à la pipe constitua le premier tableau dans l'histoire dépassant la barre symbolique des 100 millions de dollars. 
  Portail de la peinture   Portail des années 1900   Portail de l’Espagne   Portail du tabac                  </t>
